--- a/Code/ApartmentManagement/template/Service.xlsx
+++ b/Code/ApartmentManagement/template/Service.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -26,6 +26,9 @@
     <t>Tháng</t>
   </si>
   <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
     <t>Mô tả</t>
   </si>
   <si>
@@ -35,16 +38,22 @@
     <t>Chỉ số mới</t>
   </si>
   <si>
-    <t>1 - A1 - Tầng 2 - 201</t>
+    <t>201 - Tầng 2 - A1</t>
   </si>
   <si>
     <t>1 - Điện</t>
   </si>
   <si>
-    <t>5-2019</t>
+    <t>05-2019</t>
   </si>
   <si>
     <t>Thu tiền tháng 5</t>
+  </si>
+  <si>
+    <t>202 - Tầng 2 - A1</t>
+  </si>
+  <si>
+    <t>4 - ghh</t>
   </si>
 </sst>
 </file>
@@ -95,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,31 +129,54 @@
       <c r="F1" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
         <v>20.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>40.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="B2:B100001" allowBlank="true" errorStyle="stop" showErrorMessage="true">
-      <formula1>"1 - Điện,2 - Nước,3 - Quản lý chung cư,4 - test,6 - 12123"</formula1>
+      <formula1>"1 - Điện,2 - Nước,3 - Quản lý chung cư,4 - ghh"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
